--- a/controllers/main/map_enlarged.xlsx
+++ b/controllers/main/map_enlarged.xlsx
@@ -634,22 +634,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -732,19 +732,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -792,16 +792,16 @@
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -827,19 +827,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -887,16 +887,16 @@
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -922,19 +922,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -982,19 +982,19 @@
         <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>-1</v>
@@ -1017,19 +1017,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -1056,40 +1056,40 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>-1</v>
@@ -1106,25 +1106,25 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -1151,40 +1151,40 @@
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>-1</v>
@@ -1201,13 +1201,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1246,40 +1246,40 @@
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>-1</v>
@@ -1293,16 +1293,16 @@
         <v>-1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
@@ -1371,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>-1</v>
@@ -1388,16 +1388,16 @@
         <v>-1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1436,19 +1436,19 @@
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X11" t="n">
         <v>1</v>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>-1</v>
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>-1</v>
@@ -1581,13 +1581,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>-1</v>
@@ -1736,13 +1736,13 @@
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>-1</v>
@@ -1831,25 +1831,25 @@
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>-1</v>
@@ -1887,13 +1887,13 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -1926,25 +1926,25 @@
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
         <v>-1</v>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>-1</v>
@@ -1985,13 +1985,13 @@
         <v>-1</v>
       </c>
       <c r="L17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
         <v>-1</v>
@@ -2033,13 +2033,13 @@
         <v>-1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>-1</v>
@@ -2083,10 +2083,10 @@
         <v>-1</v>
       </c>
       <c r="M18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
         <v>-1</v>
@@ -2128,13 +2128,13 @@
         <v>-1</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
         <v>-1</v>
@@ -2178,10 +2178,10 @@
         <v>-1</v>
       </c>
       <c r="M19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
@@ -2214,22 +2214,22 @@
         <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>-1</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I20" t="n">
         <v>-1</v>
@@ -2273,10 +2273,10 @@
         <v>-1</v>
       </c>
       <c r="M20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
@@ -2309,22 +2309,22 @@
         <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>-1</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I21" t="n">
         <v>-1</v>
@@ -2368,7 +2368,7 @@
         <v>-1</v>
       </c>
       <c r="M21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -2380,16 +2380,16 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>-0.2000000000000001</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
@@ -2404,22 +2404,22 @@
         <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>-1</v>
@@ -2448,19 +2448,19 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -2475,19 +2475,19 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -2505,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>-1</v>
@@ -2570,19 +2570,19 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -2603,13 +2603,13 @@
         <v>1</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>-1</v>
@@ -2665,10 +2665,10 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S24" t="n">
         <v>-1</v>
@@ -2680,7 +2680,7 @@
         <v>-1</v>
       </c>
       <c r="V24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
         <v>-1</v>
@@ -2760,22 +2760,22 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -2793,13 +2793,13 @@
         <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>-1</v>
@@ -2855,22 +2855,22 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -2888,13 +2888,13 @@
         <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
         <v>-1</v>
@@ -2950,25 +2950,25 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
         <v>1</v>
@@ -2983,13 +2983,13 @@
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>-1</v>
@@ -3030,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -3048,22 +3048,22 @@
         <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
         <v>1</v>
@@ -3078,13 +3078,13 @@
         <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
         <v>-1</v>
@@ -3125,19 +3125,19 @@
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -3152,34 +3152,34 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>-1</v>
@@ -3220,19 +3220,19 @@
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -3250,16 +3250,16 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z30" t="n">
         <v>-1</v>
@@ -3268,13 +3268,13 @@
         <v>-1</v>
       </c>
       <c r="AB30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>-1</v>
@@ -3315,19 +3315,19 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -3348,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z31" t="n">
         <v>-1</v>
@@ -3363,13 +3363,13 @@
         <v>-1</v>
       </c>
       <c r="AB31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>-1</v>
@@ -3410,19 +3410,19 @@
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -3446,19 +3446,19 @@
         <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -3541,19 +3541,19 @@
         <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -3671,19 +3671,19 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3740,10 +3740,10 @@
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>-1</v>
       </c>
       <c r="I37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -3897,13 +3897,13 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3956,13 +3956,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G38" t="n">
         <v>-1</v>
@@ -3971,7 +3971,7 @@
         <v>-1</v>
       </c>
       <c r="I38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -3989,16 +3989,16 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -4048,16 +4048,16 @@
         <v>-1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" t="n">
         <v>-1</v>
@@ -4066,7 +4066,7 @@
         <v>-1</v>
       </c>
       <c r="I39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -4084,22 +4084,22 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="U39" t="n">
         <v>1</v>
@@ -4120,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>-1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -4170,37 +4170,37 @@
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W40" t="n">
         <v>1</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -4238,19 +4238,19 @@
         <v>-1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -4262,49 +4262,49 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
         <v>-1</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="n">
         <v>0.6000000000000001</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -4333,43 +4333,43 @@
         <v>-1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4390,13 +4390,13 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4428,82 +4428,82 @@
         <v>-1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -4523,82 +4523,82 @@
         <v>-1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
@@ -4618,79 +4618,79 @@
         <v>-1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
@@ -4713,79 +4713,79 @@
         <v>-1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
@@ -4808,70 +4808,70 @@
         <v>-1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y47" t="n">
         <v>0</v>
@@ -4903,67 +4903,67 @@
         <v>-1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -4998,67 +4998,67 @@
         <v>-1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -5093,73 +5093,73 @@
         <v>-1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
